--- a/data/tools/prepare_dang1new.xlsx
+++ b/data/tools/prepare_dang1new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Hanoi University of Science and Technology\GIT\MiniProd_NLP2_InstantResponse_T1_2025_StepUpEducation\data\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52D9C3B-6821-426C-8790-C35595B3C56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39B3400-91A5-498C-BD6A-7C1553E014D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2887,24 +2887,51 @@
     <t>cấu trúc user_input</t>
   </si>
   <si>
+    <t>conversation_history</t>
+  </si>
+  <si>
     <t>"You are an AI Content Generator for conversational language learning. 
 You are given: 
 1. **PHRASE ROBOT TEACHING**: ""&lt;Phrase&gt;"" 
 Your task: 
-1. Simulate a **12-question-answer conversation** between ROBOT and HỌC SINH (xưng hô cậu - tớ). 
+1. Simulate a **12-question-answer conversation (only 2 turns each intent types)** between ROBOT and HỌC SINH (xưng hô cậu - tớ). 
 2. Distribute the conversation evenly across **6 user intent types** (2 pairs per type, alternating in sequence): 
 - **user_intent_positive**: only 2 pairs 
-- User expresses satisfaction or optimism with **emotional reactions** like ""Hay quá!"", ""Wow, dễ hiểu thật!"". 
+- User expresses satisfaction or optimism with **emotional reactions**. 
+- **Examples:** 
+- "Hay quá!", "Wow, dễ hiểu thật!", "Cảm ơn nhé, tớ hiểu rồi!", "Ồ, tuyệt thế, tớ học thêm được nhiều lắm!" 
+- "Hihi, đúng là dễ hiểu hơn rồi!", "Thật tuyệt, tớ hiểu nhanh luôn!" 
+- "Ôi, hay ghê!", "Tớ thấy cách này thú vị thật đấy!" 
 - **user_intent_negative**: only 2 pairs 
-- User shows dislike, dissatisfaction, or complaints like ""Khó quá, tớ không học nổi đâu!"". 
+- User shows dislike, dissatisfaction, or complaints. 
+- **Examples:** 
+- "Khó quá, tớ không học nổi đâu!", "Cách này phức tạp quá, tớ không thích!" 
+- "Tớ không muốn học nữa!", "Học mà không nhớ nổi gì cả, chán thật!" 
+- "Tớ thấy cách này không hiệu quả chút nào!", "Cụm này chán lắm, tớ không thích!" 
 - **user_intent_neutral**: only 2 pairs 
-- User responds indifferently or without strong emotion like ""Ok."", ""Ừ thì chắc là đúng."". 
+- User responds indifferently or without strong emotion. 
+- **Examples:** 
+- "Ok.", "Ừ thì chắc là đúng.", "Cũng được.", "Ừm, tớ cũng không rõ nữa." 
+- "Thì cũng tạm ổn thôi.", "Chắc là thế." 
+- "Không quan trọng lắm.", "Ừ thì tớ đoán là đúng rồi." 
 - **user_intent_learn_more**: only 2 pairs 
-- User shows curiosity or interest in learning more, e.g., ""Chỉ tớ thêm với!"", ""Có cách dùng nào khác không?"". 
+- User shows curiosity or interest in learning more. 
+- **Examples:** 
+- "Chỉ tớ thêm với!", "Tớ muốn học tiếp!", "Có gì hay nữa không?" 
+- "Còn cách dùng nào khác không nhỉ?", "Tớ có thể dùng cụm này trong ngữ cảnh khác không?" 
+- "Cậu dạy tớ thêm cách dùng từ này đi!", "Tớ muốn hiểu sâu hơn, giải thích thêm nhé?" 
 - **user_intent_fallback**: only 2 pairs 
-- User says something **unrelated or off-topic**, e.g., ""Học cái này để làm gì nhỉ?"", ""Tớ vừa mua giày mới, đẹp không cậu?"". 
+- User says something **unrelated or off-topic**. 
+- **Examples:** 
+- "Tớ vừa mua giày mới, đẹp không cậu?" 
+- "Tớ đang nghĩ xem tối nay xem phim gì.", "Ờ... mà trời hôm nay đẹp nhỉ?" 
+- "Tớ chán học rồi, chơi game đi?", "À mà cậu biết không, hôm nay tớ vừa gặp bạn cũ!" 
 - **user_silence**: 
-- User remains silent or does not respond, e.g,, ""..."" """", none, 
+- User remains silent or does not respond. 
+- **Examples:** 
+- "...", "", `none` 
+- (Không có phản hồi, học sinh giữ im lặng) 
+- (Học sinh không trả lời trong thời gian dài) 
 3. Ensure that: 
 - **Robot's questions** use **both Vietnamese and A2-B1 English** to teach and engage. 
 - The tone is conversational and friendly. 
@@ -2912,17 +2939,18 @@
 - **Every robot's prompt includes a specific English word/phrase** for learning. 
 ============ 
 **Response Format:** 
-```json 
-[ 
-{ ""turn"": 1 
-""robot"": ""&lt;Robot's question or prompt, includes a word/phrase in English&gt;"", 
-""user_answer"": ""&lt;The student's response&gt;"", 
-""user_intent"": ""&lt;User's intent&gt;"", 
-""why_classification"": ""Short reason for this classification, in Vietnamese"" 
-}, 
-... 
-] 
-``` 
+```json
+[
+{ "turn": 1
+"robot": "&lt;Robot's question or prompt, includes a word/phrase in English&gt;",
+"user_answer": "&lt;The student's response&gt;",
+"user_intent": "&lt;User's intent&gt;",
+"why_classification": "Short reason for this classification, in Vietnamese"
+},
+...
+&lt;12 turns: only 2 turns each intent types&gt;
+]
+```
 ============ 
 **EXAMPLE:** 
 ### 10 Loại Câu Robot Về Từ “Chicken” 
@@ -2941,14 +2969,11 @@
 7. **Mô tả âm thanh của gà:** 
 - "Gà kêu trong tiếng Anh là gì nhỉ? Người ta nói: 'Chickens cluck.' Nào, cậu thử nói theo nhé!" 
 8. **Dạy từ liên quan:** 
-- "Ngoài từ chicken, cậu có biết 'trứng gà' là gì không? Tớ bật mí nhé: egg. Nói thử: 'Chicken lays eggs.' Cùng nói theo tớ nhé 
+- "Ngoài từ chicken, cậu có biết 'trứng gà' là gì không? Tớ bật mí nhé: egg. Nói thử: 'Chicken lays eggs.' Cùng nói theo tớ nhé
 9. **Liên kết với sở thích:** 
 - "Cậu thích ăn món gà nào nhất? Tớ thì thích fried chicken. Nói thử: 'I love fried chicken.'" 
 10. **Mở rộng câu hỏi:** 
 - "Cậu có thể hỏi người khác như thế này: 'What is your favorite chicken dish?' Nói thử đi!"</t>
-  </si>
-  <si>
-    <t>conversation_history</t>
   </si>
 </sst>
 </file>
@@ -3339,7 +3364,7 @@
   <dimension ref="A1:H451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:H451"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.109375" defaultRowHeight="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3364,7 +3389,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>954</v>
@@ -3387,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
@@ -3409,7 +3434,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
@@ -3431,7 +3456,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
@@ -3453,7 +3478,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
@@ -3475,7 +3500,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
@@ -3499,7 +3524,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
@@ -3521,7 +3546,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
@@ -3543,7 +3568,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
@@ -3565,7 +3590,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
@@ -3587,7 +3612,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
@@ -3611,7 +3636,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
@@ -3633,7 +3658,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
@@ -3655,7 +3680,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
@@ -3677,7 +3702,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
@@ -3699,7 +3724,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
@@ -3723,7 +3748,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
@@ -3745,7 +3770,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
@@ -3767,7 +3792,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
@@ -3789,7 +3814,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
@@ -3811,7 +3836,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
@@ -3835,7 +3860,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
@@ -3857,7 +3882,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
@@ -3879,7 +3904,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
@@ -3901,7 +3926,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
@@ -3923,7 +3948,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
@@ -3947,7 +3972,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
@@ -3969,7 +3994,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
@@ -3991,7 +4016,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
@@ -4013,7 +4038,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
@@ -4035,7 +4060,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
@@ -4059,7 +4084,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
@@ -4081,7 +4106,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
@@ -4103,7 +4128,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6" t="s">
@@ -4125,7 +4150,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
@@ -4147,7 +4172,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
@@ -4171,7 +4196,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
@@ -4193,7 +4218,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
@@ -4215,7 +4240,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6" t="s">
@@ -4237,7 +4262,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
@@ -4259,7 +4284,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
@@ -4283,7 +4308,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6" t="s">
@@ -4305,7 +4330,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6" t="s">
@@ -4327,7 +4352,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6" t="s">
@@ -4349,7 +4374,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6" t="s">
@@ -4371,7 +4396,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6" t="s">
@@ -4395,7 +4420,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6" t="s">
@@ -4417,7 +4442,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6" t="s">
@@ -4439,7 +4464,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6" t="s">
@@ -4461,7 +4486,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6" t="s">
@@ -4483,7 +4508,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6" t="s">
@@ -4507,7 +4532,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6" t="s">
@@ -4529,7 +4554,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6" t="s">
@@ -4551,7 +4576,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
@@ -4573,7 +4598,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6" t="s">
@@ -4595,7 +4620,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
@@ -4619,7 +4644,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6" t="s">
@@ -4641,7 +4666,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
@@ -4663,7 +4688,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
@@ -4685,7 +4710,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
@@ -4707,7 +4732,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
@@ -4731,7 +4756,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
@@ -4753,7 +4778,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6" t="s">
@@ -4775,7 +4800,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6" t="s">
@@ -4797,7 +4822,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
@@ -4819,7 +4844,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6" t="s">
@@ -4843,7 +4868,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6" t="s">
@@ -4865,7 +4890,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
@@ -4887,7 +4912,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
@@ -4909,7 +4934,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
@@ -4931,7 +4956,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6" t="s">
@@ -4955,7 +4980,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
@@ -4977,7 +5002,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
@@ -4999,7 +5024,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
@@ -5021,7 +5046,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6" t="s">
@@ -5043,7 +5068,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6" t="s">
@@ -5067,7 +5092,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6" t="s">
@@ -5089,7 +5114,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6" t="s">
@@ -5111,7 +5136,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6" t="s">
@@ -5133,7 +5158,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6" t="s">
@@ -5155,7 +5180,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6" t="s">
@@ -5179,7 +5204,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6" t="s">
@@ -5201,7 +5226,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6" t="s">
@@ -5223,7 +5248,7 @@
         <v>83</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6" t="s">
@@ -5245,7 +5270,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6" t="s">
@@ -5267,7 +5292,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6" t="s">
@@ -5291,7 +5316,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6" t="s">
@@ -5313,7 +5338,7 @@
         <v>87</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6" t="s">
@@ -5335,7 +5360,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6" t="s">
@@ -5357,7 +5382,7 @@
         <v>89</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6" t="s">
@@ -5379,7 +5404,7 @@
         <v>90</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6" t="s">
@@ -5403,7 +5428,7 @@
         <v>91</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6" t="s">
@@ -5425,7 +5450,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6" t="s">
@@ -5447,7 +5472,7 @@
         <v>93</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6" t="s">
@@ -5469,7 +5494,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6" t="s">
@@ -5491,7 +5516,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6" t="s">
@@ -5515,7 +5540,7 @@
         <v>96</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6" t="s">
@@ -5537,7 +5562,7 @@
         <v>97</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6" t="s">
@@ -5559,7 +5584,7 @@
         <v>98</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6" t="s">
@@ -5581,7 +5606,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6" t="s">
@@ -5603,7 +5628,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6" t="s">
@@ -5627,7 +5652,7 @@
         <v>101</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6" t="s">
@@ -5649,7 +5674,7 @@
         <v>102</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6" t="s">
@@ -5671,7 +5696,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
@@ -5693,7 +5718,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6" t="s">
@@ -5715,7 +5740,7 @@
         <v>105</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6" t="s">
@@ -5739,7 +5764,7 @@
         <v>106</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6" t="s">
@@ -5761,7 +5786,7 @@
         <v>107</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6" t="s">
@@ -5783,7 +5808,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6" t="s">
@@ -5805,7 +5830,7 @@
         <v>109</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
@@ -5827,7 +5852,7 @@
         <v>110</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6" t="s">
@@ -5851,7 +5876,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6" t="s">
@@ -5873,7 +5898,7 @@
         <v>112</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6" t="s">
@@ -5895,7 +5920,7 @@
         <v>113</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6" t="s">
@@ -5917,7 +5942,7 @@
         <v>114</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6" t="s">
@@ -5939,7 +5964,7 @@
         <v>115</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6" t="s">
@@ -5963,7 +5988,7 @@
         <v>116</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6" t="s">
@@ -5985,7 +6010,7 @@
         <v>117</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6" t="s">
@@ -6007,7 +6032,7 @@
         <v>118</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6" t="s">
@@ -6029,7 +6054,7 @@
         <v>119</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6" t="s">
@@ -6051,7 +6076,7 @@
         <v>120</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6" t="s">
@@ -6075,7 +6100,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6" t="s">
@@ -6097,7 +6122,7 @@
         <v>122</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E123" s="6"/>
       <c r="F123" s="6" t="s">
@@ -6119,7 +6144,7 @@
         <v>123</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E124" s="6"/>
       <c r="F124" s="6" t="s">
@@ -6141,7 +6166,7 @@
         <v>124</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6" t="s">
@@ -6163,7 +6188,7 @@
         <v>125</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6" t="s">
@@ -6187,7 +6212,7 @@
         <v>126</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6" t="s">
@@ -6209,7 +6234,7 @@
         <v>127</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6" t="s">
@@ -6231,7 +6256,7 @@
         <v>128</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6" t="s">
@@ -6253,7 +6278,7 @@
         <v>129</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6" t="s">
@@ -6275,7 +6300,7 @@
         <v>130</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6" t="s">
@@ -6299,7 +6324,7 @@
         <v>131</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6" t="s">
@@ -6321,7 +6346,7 @@
         <v>132</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6" t="s">
@@ -6343,7 +6368,7 @@
         <v>133</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6" t="s">
@@ -6365,7 +6390,7 @@
         <v>134</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6" t="s">
@@ -6387,7 +6412,7 @@
         <v>135</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E136" s="6"/>
       <c r="F136" s="6" t="s">
@@ -6411,7 +6436,7 @@
         <v>136</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6" t="s">
@@ -6433,7 +6458,7 @@
         <v>137</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6" t="s">
@@ -6455,7 +6480,7 @@
         <v>138</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E139" s="6"/>
       <c r="F139" s="6" t="s">
@@ -6477,7 +6502,7 @@
         <v>139</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E140" s="6"/>
       <c r="F140" s="6" t="s">
@@ -6499,7 +6524,7 @@
         <v>140</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6" t="s">
@@ -6523,7 +6548,7 @@
         <v>141</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E142" s="6"/>
       <c r="F142" s="6" t="s">
@@ -6545,7 +6570,7 @@
         <v>142</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E143" s="6"/>
       <c r="F143" s="6" t="s">
@@ -6567,7 +6592,7 @@
         <v>143</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6" t="s">
@@ -6589,7 +6614,7 @@
         <v>144</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6" t="s">
@@ -6611,7 +6636,7 @@
         <v>145</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6" t="s">
@@ -6635,7 +6660,7 @@
         <v>146</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="6" t="s">
@@ -6657,7 +6682,7 @@
         <v>147</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6" t="s">
@@ -6679,7 +6704,7 @@
         <v>148</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E149" s="6"/>
       <c r="F149" s="6" t="s">
@@ -6701,7 +6726,7 @@
         <v>149</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E150" s="6"/>
       <c r="F150" s="6" t="s">
@@ -6723,7 +6748,7 @@
         <v>150</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E151" s="6"/>
       <c r="F151" s="6" t="s">
@@ -6747,7 +6772,7 @@
         <v>151</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E152" s="6"/>
       <c r="F152" s="6" t="s">
@@ -6769,7 +6794,7 @@
         <v>152</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E153" s="6"/>
       <c r="F153" s="6" t="s">
@@ -6791,7 +6816,7 @@
         <v>153</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6" t="s">
@@ -6813,7 +6838,7 @@
         <v>154</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6" t="s">
@@ -6835,7 +6860,7 @@
         <v>155</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6" t="s">
@@ -6859,7 +6884,7 @@
         <v>156</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="6" t="s">
@@ -6881,7 +6906,7 @@
         <v>157</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E158" s="6"/>
       <c r="F158" s="6" t="s">
@@ -6903,7 +6928,7 @@
         <v>158</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E159" s="6"/>
       <c r="F159" s="6" t="s">
@@ -6925,7 +6950,7 @@
         <v>159</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E160" s="6"/>
       <c r="F160" s="6" t="s">
@@ -6947,7 +6972,7 @@
         <v>160</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E161" s="6"/>
       <c r="F161" s="6" t="s">
@@ -6971,7 +6996,7 @@
         <v>161</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="6" t="s">
@@ -6993,7 +7018,7 @@
         <v>162</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="6" t="s">
@@ -7015,7 +7040,7 @@
         <v>163</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="6" t="s">
@@ -7037,7 +7062,7 @@
         <v>164</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="6" t="s">
@@ -7059,7 +7084,7 @@
         <v>165</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="6" t="s">
@@ -7083,7 +7108,7 @@
         <v>166</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="6" t="s">
@@ -7105,7 +7130,7 @@
         <v>167</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6" t="s">
@@ -7127,7 +7152,7 @@
         <v>168</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E169" s="6"/>
       <c r="F169" s="6" t="s">
@@ -7149,7 +7174,7 @@
         <v>169</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="6" t="s">
@@ -7171,7 +7196,7 @@
         <v>170</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E171" s="6"/>
       <c r="F171" s="6" t="s">
@@ -7195,7 +7220,7 @@
         <v>171</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6" t="s">
@@ -7217,7 +7242,7 @@
         <v>172</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="6" t="s">
@@ -7239,7 +7264,7 @@
         <v>173</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6" t="s">
@@ -7261,7 +7286,7 @@
         <v>174</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6" t="s">
@@ -7283,7 +7308,7 @@
         <v>175</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6" t="s">
@@ -7307,7 +7332,7 @@
         <v>176</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E177" s="6"/>
       <c r="F177" s="6" t="s">
@@ -7329,7 +7354,7 @@
         <v>177</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E178" s="6"/>
       <c r="F178" s="6" t="s">
@@ -7351,7 +7376,7 @@
         <v>178</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E179" s="6"/>
       <c r="F179" s="6" t="s">
@@ -7373,7 +7398,7 @@
         <v>179</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6" t="s">
@@ -7395,7 +7420,7 @@
         <v>180</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E181" s="6"/>
       <c r="F181" s="6" t="s">
@@ -7419,7 +7444,7 @@
         <v>181</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E182" s="6"/>
       <c r="F182" s="6" t="s">
@@ -7441,7 +7466,7 @@
         <v>182</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6" t="s">
@@ -7463,7 +7488,7 @@
         <v>183</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E184" s="6"/>
       <c r="F184" s="6" t="s">
@@ -7485,7 +7510,7 @@
         <v>184</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E185" s="6"/>
       <c r="F185" s="6" t="s">
@@ -7507,7 +7532,7 @@
         <v>185</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E186" s="6"/>
       <c r="F186" s="6" t="s">
@@ -7531,7 +7556,7 @@
         <v>186</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E187" s="6"/>
       <c r="F187" s="6" t="s">
@@ -7553,7 +7578,7 @@
         <v>187</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188" s="6" t="s">
@@ -7575,7 +7600,7 @@
         <v>188</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E189" s="6"/>
       <c r="F189" s="6" t="s">
@@ -7597,7 +7622,7 @@
         <v>189</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E190" s="6"/>
       <c r="F190" s="6" t="s">
@@ -7619,7 +7644,7 @@
         <v>190</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E191" s="6"/>
       <c r="F191" s="6" t="s">
@@ -7643,7 +7668,7 @@
         <v>191</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E192" s="6"/>
       <c r="F192" s="6" t="s">
@@ -7665,7 +7690,7 @@
         <v>192</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E193" s="6"/>
       <c r="F193" s="6" t="s">
@@ -7687,7 +7712,7 @@
         <v>193</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="6" t="s">
@@ -7709,7 +7734,7 @@
         <v>194</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E195" s="6"/>
       <c r="F195" s="6" t="s">
@@ -7731,7 +7756,7 @@
         <v>195</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E196" s="6"/>
       <c r="F196" s="6" t="s">
@@ -7755,7 +7780,7 @@
         <v>196</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E197" s="6"/>
       <c r="F197" s="6" t="s">
@@ -7777,7 +7802,7 @@
         <v>197</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E198" s="6"/>
       <c r="F198" s="6" t="s">
@@ -7799,7 +7824,7 @@
         <v>198</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E199" s="6"/>
       <c r="F199" s="6" t="s">
@@ -7821,7 +7846,7 @@
         <v>199</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E200" s="6"/>
       <c r="F200" s="6" t="s">
@@ -7843,7 +7868,7 @@
         <v>200</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E201" s="6"/>
       <c r="F201" s="6" t="s">
@@ -7867,7 +7892,7 @@
         <v>201</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E202" s="6"/>
       <c r="F202" s="6" t="s">
@@ -7889,7 +7914,7 @@
         <v>202</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E203" s="6"/>
       <c r="F203" s="6" t="s">
@@ -7911,7 +7936,7 @@
         <v>203</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E204" s="6"/>
       <c r="F204" s="6" t="s">
@@ -7933,7 +7958,7 @@
         <v>204</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E205" s="6"/>
       <c r="F205" s="6" t="s">
@@ -7955,7 +7980,7 @@
         <v>205</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E206" s="6"/>
       <c r="F206" s="6" t="s">
@@ -7979,7 +8004,7 @@
         <v>206</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E207" s="6"/>
       <c r="F207" s="6" t="s">
@@ -8001,7 +8026,7 @@
         <v>207</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E208" s="6"/>
       <c r="F208" s="6" t="s">
@@ -8023,7 +8048,7 @@
         <v>208</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="6" t="s">
@@ -8045,7 +8070,7 @@
         <v>209</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="6" t="s">
@@ -8067,7 +8092,7 @@
         <v>210</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="6" t="s">
@@ -8091,7 +8116,7 @@
         <v>211</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E212" s="6"/>
       <c r="F212" s="6" t="s">
@@ -8113,7 +8138,7 @@
         <v>212</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E213" s="6"/>
       <c r="F213" s="6" t="s">
@@ -8135,7 +8160,7 @@
         <v>213</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E214" s="6"/>
       <c r="F214" s="6" t="s">
@@ -8157,7 +8182,7 @@
         <v>214</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E215" s="6"/>
       <c r="F215" s="6" t="s">
@@ -8179,7 +8204,7 @@
         <v>215</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E216" s="6"/>
       <c r="F216" s="6" t="s">
@@ -8203,7 +8228,7 @@
         <v>216</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E217" s="6"/>
       <c r="F217" s="6" t="s">
@@ -8225,7 +8250,7 @@
         <v>217</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E218" s="6"/>
       <c r="F218" s="6" t="s">
@@ -8247,7 +8272,7 @@
         <v>218</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E219" s="6"/>
       <c r="F219" s="6" t="s">
@@ -8269,7 +8294,7 @@
         <v>219</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E220" s="6"/>
       <c r="F220" s="6" t="s">
@@ -8291,7 +8316,7 @@
         <v>220</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E221" s="6"/>
       <c r="F221" s="6" t="s">
@@ -8315,7 +8340,7 @@
         <v>221</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E222" s="6"/>
       <c r="F222" s="6" t="s">
@@ -8337,7 +8362,7 @@
         <v>222</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E223" s="6"/>
       <c r="F223" s="6" t="s">
@@ -8359,7 +8384,7 @@
         <v>223</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E224" s="6"/>
       <c r="F224" s="6" t="s">
@@ -8381,7 +8406,7 @@
         <v>224</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E225" s="6"/>
       <c r="F225" s="6" t="s">
@@ -8403,7 +8428,7 @@
         <v>225</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E226" s="6"/>
       <c r="F226" s="6" t="s">
@@ -8427,7 +8452,7 @@
         <v>226</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E227" s="6"/>
       <c r="F227" s="6" t="s">
@@ -8449,7 +8474,7 @@
         <v>227</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E228" s="6"/>
       <c r="F228" s="6" t="s">
@@ -8471,7 +8496,7 @@
         <v>228</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E229" s="6"/>
       <c r="F229" s="6" t="s">
@@ -8493,7 +8518,7 @@
         <v>229</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E230" s="6"/>
       <c r="F230" s="6" t="s">
@@ -8515,7 +8540,7 @@
         <v>230</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E231" s="6"/>
       <c r="F231" s="6" t="s">
@@ -8539,7 +8564,7 @@
         <v>231</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E232" s="6"/>
       <c r="F232" s="6" t="s">
@@ -8561,7 +8586,7 @@
         <v>232</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E233" s="6"/>
       <c r="F233" s="6" t="s">
@@ -8583,7 +8608,7 @@
         <v>233</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E234" s="6"/>
       <c r="F234" s="6" t="s">
@@ -8605,7 +8630,7 @@
         <v>234</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E235" s="6"/>
       <c r="F235" s="6" t="s">
@@ -8627,7 +8652,7 @@
         <v>235</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E236" s="6"/>
       <c r="F236" s="6" t="s">
@@ -8651,7 +8676,7 @@
         <v>236</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E237" s="6"/>
       <c r="F237" s="6" t="s">
@@ -8673,7 +8698,7 @@
         <v>237</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E238" s="6"/>
       <c r="F238" s="6" t="s">
@@ -8695,7 +8720,7 @@
         <v>238</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E239" s="6"/>
       <c r="F239" s="6" t="s">
@@ -8717,7 +8742,7 @@
         <v>239</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E240" s="6"/>
       <c r="F240" s="6" t="s">
@@ -8739,7 +8764,7 @@
         <v>240</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E241" s="6"/>
       <c r="F241" s="6" t="s">
@@ -8763,7 +8788,7 @@
         <v>241</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E242" s="6"/>
       <c r="F242" s="6" t="s">
@@ -8785,7 +8810,7 @@
         <v>242</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E243" s="6"/>
       <c r="F243" s="6" t="s">
@@ -8807,7 +8832,7 @@
         <v>243</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E244" s="6"/>
       <c r="F244" s="6" t="s">
@@ -8829,7 +8854,7 @@
         <v>244</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E245" s="6"/>
       <c r="F245" s="6" t="s">
@@ -8851,7 +8876,7 @@
         <v>245</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E246" s="6"/>
       <c r="F246" s="6" t="s">
@@ -8875,7 +8900,7 @@
         <v>246</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E247" s="6"/>
       <c r="F247" s="6" t="s">
@@ -8897,7 +8922,7 @@
         <v>247</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E248" s="6"/>
       <c r="F248" s="6" t="s">
@@ -8919,7 +8944,7 @@
         <v>248</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E249" s="6"/>
       <c r="F249" s="6" t="s">
@@ -8941,7 +8966,7 @@
         <v>249</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E250" s="6"/>
       <c r="F250" s="6" t="s">
@@ -8963,7 +8988,7 @@
         <v>250</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E251" s="6"/>
       <c r="F251" s="6" t="s">
@@ -8987,7 +9012,7 @@
         <v>251</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E252" s="6"/>
       <c r="F252" s="6" t="s">
@@ -9009,7 +9034,7 @@
         <v>252</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E253" s="6"/>
       <c r="F253" s="6" t="s">
@@ -9031,7 +9056,7 @@
         <v>253</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E254" s="6"/>
       <c r="F254" s="6" t="s">
@@ -9053,7 +9078,7 @@
         <v>254</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E255" s="6"/>
       <c r="F255" s="6" t="s">
@@ -9075,7 +9100,7 @@
         <v>255</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E256" s="6"/>
       <c r="F256" s="6" t="s">
@@ -9099,7 +9124,7 @@
         <v>256</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E257" s="6"/>
       <c r="F257" s="6" t="s">
@@ -9121,7 +9146,7 @@
         <v>257</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E258" s="6"/>
       <c r="F258" s="6" t="s">
@@ -9143,7 +9168,7 @@
         <v>258</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E259" s="6"/>
       <c r="F259" s="6" t="s">
@@ -9165,7 +9190,7 @@
         <v>259</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E260" s="6"/>
       <c r="F260" s="6" t="s">
@@ -9187,7 +9212,7 @@
         <v>260</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E261" s="6"/>
       <c r="F261" s="6" t="s">
@@ -9211,7 +9236,7 @@
         <v>261</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E262" s="6"/>
       <c r="F262" s="6" t="s">
@@ -9233,7 +9258,7 @@
         <v>262</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E263" s="6"/>
       <c r="F263" s="6" t="s">
@@ -9255,7 +9280,7 @@
         <v>263</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E264" s="6"/>
       <c r="F264" s="6" t="s">
@@ -9277,7 +9302,7 @@
         <v>264</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E265" s="6"/>
       <c r="F265" s="6" t="s">
@@ -9299,7 +9324,7 @@
         <v>265</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E266" s="6"/>
       <c r="F266" s="6" t="s">
@@ -9323,7 +9348,7 @@
         <v>266</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E267" s="6"/>
       <c r="F267" s="6" t="s">
@@ -9345,7 +9370,7 @@
         <v>267</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E268" s="6"/>
       <c r="F268" s="6" t="s">
@@ -9367,7 +9392,7 @@
         <v>268</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E269" s="6"/>
       <c r="F269" s="6" t="s">
@@ -9389,7 +9414,7 @@
         <v>269</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E270" s="6"/>
       <c r="F270" s="6" t="s">
@@ -9411,7 +9436,7 @@
         <v>270</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E271" s="6"/>
       <c r="F271" s="6" t="s">
@@ -9435,7 +9460,7 @@
         <v>271</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E272" s="6"/>
       <c r="F272" s="6" t="s">
@@ -9457,7 +9482,7 @@
         <v>272</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E273" s="6"/>
       <c r="F273" s="6" t="s">
@@ -9479,7 +9504,7 @@
         <v>273</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E274" s="6"/>
       <c r="F274" s="6" t="s">
@@ -9501,7 +9526,7 @@
         <v>274</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E275" s="6"/>
       <c r="F275" s="6" t="s">
@@ -9523,7 +9548,7 @@
         <v>275</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E276" s="6"/>
       <c r="F276" s="6" t="s">
@@ -9547,7 +9572,7 @@
         <v>276</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E277" s="6"/>
       <c r="F277" s="6" t="s">
@@ -9569,7 +9594,7 @@
         <v>277</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E278" s="6"/>
       <c r="F278" s="6" t="s">
@@ -9591,7 +9616,7 @@
         <v>278</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E279" s="6"/>
       <c r="F279" s="6" t="s">
@@ -9613,7 +9638,7 @@
         <v>279</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E280" s="6"/>
       <c r="F280" s="6" t="s">
@@ -9635,7 +9660,7 @@
         <v>280</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E281" s="6"/>
       <c r="F281" s="6" t="s">
@@ -9659,7 +9684,7 @@
         <v>281</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E282" s="6"/>
       <c r="F282" s="6" t="s">
@@ -9681,7 +9706,7 @@
         <v>282</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E283" s="6"/>
       <c r="F283" s="6" t="s">
@@ -9703,7 +9728,7 @@
         <v>283</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E284" s="6"/>
       <c r="F284" s="6" t="s">
@@ -9725,7 +9750,7 @@
         <v>284</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E285" s="6"/>
       <c r="F285" s="6" t="s">
@@ -9747,7 +9772,7 @@
         <v>285</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E286" s="6"/>
       <c r="F286" s="6" t="s">
@@ -9771,7 +9796,7 @@
         <v>286</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E287" s="6"/>
       <c r="F287" s="6" t="s">
@@ -9793,7 +9818,7 @@
         <v>287</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E288" s="6"/>
       <c r="F288" s="6" t="s">
@@ -9815,7 +9840,7 @@
         <v>288</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E289" s="6"/>
       <c r="F289" s="6" t="s">
@@ -9837,7 +9862,7 @@
         <v>289</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E290" s="6"/>
       <c r="F290" s="6" t="s">
@@ -9859,7 +9884,7 @@
         <v>290</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E291" s="6"/>
       <c r="F291" s="6" t="s">
@@ -9883,7 +9908,7 @@
         <v>291</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E292" s="6"/>
       <c r="F292" s="6" t="s">
@@ -9905,7 +9930,7 @@
         <v>292</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E293" s="6"/>
       <c r="F293" s="6" t="s">
@@ -9927,7 +9952,7 @@
         <v>293</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E294" s="6"/>
       <c r="F294" s="6" t="s">
@@ -9949,7 +9974,7 @@
         <v>294</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E295" s="6"/>
       <c r="F295" s="6" t="s">
@@ -9971,7 +9996,7 @@
         <v>295</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E296" s="6"/>
       <c r="F296" s="6" t="s">
@@ -9995,7 +10020,7 @@
         <v>296</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E297" s="6"/>
       <c r="F297" s="6" t="s">
@@ -10017,7 +10042,7 @@
         <v>297</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E298" s="6"/>
       <c r="F298" s="6" t="s">
@@ -10039,7 +10064,7 @@
         <v>298</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E299" s="6"/>
       <c r="F299" s="6" t="s">
@@ -10061,7 +10086,7 @@
         <v>299</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E300" s="6"/>
       <c r="F300" s="6" t="s">
@@ -10083,7 +10108,7 @@
         <v>300</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E301" s="6"/>
       <c r="F301" s="6" t="s">
@@ -10107,7 +10132,7 @@
         <v>301</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E302" s="6"/>
       <c r="F302" s="6" t="s">
@@ -10129,7 +10154,7 @@
         <v>302</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E303" s="6"/>
       <c r="F303" s="6" t="s">
@@ -10151,7 +10176,7 @@
         <v>303</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E304" s="6"/>
       <c r="F304" s="6" t="s">
@@ -10173,7 +10198,7 @@
         <v>304</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E305" s="6"/>
       <c r="F305" s="6" t="s">
@@ -10195,7 +10220,7 @@
         <v>305</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E306" s="6"/>
       <c r="F306" s="6" t="s">
@@ -10219,7 +10244,7 @@
         <v>306</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E307" s="6"/>
       <c r="F307" s="6" t="s">
@@ -10241,7 +10266,7 @@
         <v>307</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E308" s="6"/>
       <c r="F308" s="6" t="s">
@@ -10263,7 +10288,7 @@
         <v>308</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E309" s="6"/>
       <c r="F309" s="6" t="s">
@@ -10285,7 +10310,7 @@
         <v>309</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E310" s="6"/>
       <c r="F310" s="6" t="s">
@@ -10307,7 +10332,7 @@
         <v>310</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E311" s="6"/>
       <c r="F311" s="6" t="s">
@@ -10331,7 +10356,7 @@
         <v>311</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E312" s="6"/>
       <c r="F312" s="6" t="s">
@@ -10353,7 +10378,7 @@
         <v>312</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E313" s="6"/>
       <c r="F313" s="6" t="s">
@@ -10375,7 +10400,7 @@
         <v>313</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E314" s="6"/>
       <c r="F314" s="6" t="s">
@@ -10397,7 +10422,7 @@
         <v>314</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E315" s="6"/>
       <c r="F315" s="6" t="s">
@@ -10419,7 +10444,7 @@
         <v>315</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E316" s="6"/>
       <c r="F316" s="6" t="s">
@@ -10443,7 +10468,7 @@
         <v>316</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E317" s="6"/>
       <c r="F317" s="6" t="s">
@@ -10465,7 +10490,7 @@
         <v>317</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E318" s="6"/>
       <c r="F318" s="6" t="s">
@@ -10487,7 +10512,7 @@
         <v>318</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E319" s="6"/>
       <c r="F319" s="6" t="s">
@@ -10509,7 +10534,7 @@
         <v>319</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E320" s="6"/>
       <c r="F320" s="6" t="s">
@@ -10531,7 +10556,7 @@
         <v>320</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E321" s="6"/>
       <c r="F321" s="6" t="s">
@@ -10555,7 +10580,7 @@
         <v>321</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E322" s="6"/>
       <c r="F322" s="6" t="s">
@@ -10577,7 +10602,7 @@
         <v>322</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E323" s="6"/>
       <c r="F323" s="6" t="s">
@@ -10599,7 +10624,7 @@
         <v>323</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E324" s="6"/>
       <c r="F324" s="6" t="s">
@@ -10621,7 +10646,7 @@
         <v>324</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E325" s="6"/>
       <c r="F325" s="6" t="s">
@@ -10643,7 +10668,7 @@
         <v>325</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E326" s="6"/>
       <c r="F326" s="6" t="s">
@@ -10667,7 +10692,7 @@
         <v>326</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E327" s="6"/>
       <c r="F327" s="6" t="s">
@@ -10689,7 +10714,7 @@
         <v>327</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E328" s="6"/>
       <c r="F328" s="6" t="s">
@@ -10711,7 +10736,7 @@
         <v>328</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E329" s="6"/>
       <c r="F329" s="6" t="s">
@@ -10733,7 +10758,7 @@
         <v>329</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E330" s="6"/>
       <c r="F330" s="6" t="s">
@@ -10755,7 +10780,7 @@
         <v>330</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E331" s="6"/>
       <c r="F331" s="6" t="s">
@@ -10779,7 +10804,7 @@
         <v>331</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E332" s="6"/>
       <c r="F332" s="6" t="s">
@@ -10801,7 +10826,7 @@
         <v>332</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E333" s="6"/>
       <c r="F333" s="6" t="s">
@@ -10823,7 +10848,7 @@
         <v>333</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E334" s="6"/>
       <c r="F334" s="6" t="s">
@@ -10845,7 +10870,7 @@
         <v>334</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E335" s="6"/>
       <c r="F335" s="6" t="s">
@@ -10867,7 +10892,7 @@
         <v>335</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E336" s="6"/>
       <c r="F336" s="6" t="s">
@@ -10891,7 +10916,7 @@
         <v>336</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E337" s="6"/>
       <c r="F337" s="6" t="s">
@@ -10913,7 +10938,7 @@
         <v>337</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E338" s="6"/>
       <c r="F338" s="6" t="s">
@@ -10935,7 +10960,7 @@
         <v>338</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E339" s="6"/>
       <c r="F339" s="6" t="s">
@@ -10957,7 +10982,7 @@
         <v>339</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E340" s="6"/>
       <c r="F340" s="6" t="s">
@@ -10979,7 +11004,7 @@
         <v>340</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E341" s="6"/>
       <c r="F341" s="6" t="s">
@@ -11003,7 +11028,7 @@
         <v>341</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E342" s="6"/>
       <c r="F342" s="6" t="s">
@@ -11025,7 +11050,7 @@
         <v>342</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E343" s="6"/>
       <c r="F343" s="6" t="s">
@@ -11047,7 +11072,7 @@
         <v>343</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E344" s="6"/>
       <c r="F344" s="6" t="s">
@@ -11069,7 +11094,7 @@
         <v>344</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E345" s="6"/>
       <c r="F345" s="6" t="s">
@@ -11091,7 +11116,7 @@
         <v>345</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E346" s="6"/>
       <c r="F346" s="6" t="s">
@@ -11115,7 +11140,7 @@
         <v>346</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E347" s="6"/>
       <c r="F347" s="6" t="s">
@@ -11137,7 +11162,7 @@
         <v>347</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E348" s="6"/>
       <c r="F348" s="6" t="s">
@@ -11159,7 +11184,7 @@
         <v>348</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E349" s="6"/>
       <c r="F349" s="6" t="s">
@@ -11181,7 +11206,7 @@
         <v>349</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E350" s="6"/>
       <c r="F350" s="6" t="s">
@@ -11203,7 +11228,7 @@
         <v>350</v>
       </c>
       <c r="D351" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E351" s="6"/>
       <c r="F351" s="6" t="s">
@@ -11227,7 +11252,7 @@
         <v>351</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E352" s="6"/>
       <c r="F352" s="6" t="s">
@@ -11249,7 +11274,7 @@
         <v>352</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E353" s="6"/>
       <c r="F353" s="6" t="s">
@@ -11271,7 +11296,7 @@
         <v>353</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E354" s="6"/>
       <c r="F354" s="6" t="s">
@@ -11293,7 +11318,7 @@
         <v>354</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E355" s="6"/>
       <c r="F355" s="6" t="s">
@@ -11315,7 +11340,7 @@
         <v>355</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E356" s="6"/>
       <c r="F356" s="6" t="s">
@@ -11339,7 +11364,7 @@
         <v>356</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E357" s="6"/>
       <c r="F357" s="6" t="s">
@@ -11361,7 +11386,7 @@
         <v>357</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E358" s="6"/>
       <c r="F358" s="6" t="s">
@@ -11383,7 +11408,7 @@
         <v>358</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E359" s="6"/>
       <c r="F359" s="6" t="s">
@@ -11405,7 +11430,7 @@
         <v>359</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E360" s="6"/>
       <c r="F360" s="6" t="s">
@@ -11427,7 +11452,7 @@
         <v>360</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E361" s="6"/>
       <c r="F361" s="6" t="s">
@@ -11451,7 +11476,7 @@
         <v>361</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E362" s="6"/>
       <c r="F362" s="6" t="s">
@@ -11473,7 +11498,7 @@
         <v>362</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E363" s="6"/>
       <c r="F363" s="6" t="s">
@@ -11495,7 +11520,7 @@
         <v>363</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E364" s="6"/>
       <c r="F364" s="6" t="s">
@@ -11517,7 +11542,7 @@
         <v>364</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E365" s="6"/>
       <c r="F365" s="6" t="s">
@@ -11539,7 +11564,7 @@
         <v>365</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E366" s="6"/>
       <c r="F366" s="6" t="s">
@@ -11563,7 +11588,7 @@
         <v>366</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E367" s="6"/>
       <c r="F367" s="6" t="s">
@@ -11585,7 +11610,7 @@
         <v>367</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E368" s="6"/>
       <c r="F368" s="6" t="s">
@@ -11607,7 +11632,7 @@
         <v>368</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E369" s="6"/>
       <c r="F369" s="6" t="s">
@@ -11629,7 +11654,7 @@
         <v>369</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E370" s="6"/>
       <c r="F370" s="6" t="s">
@@ -11651,7 +11676,7 @@
         <v>370</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E371" s="6"/>
       <c r="F371" s="6" t="s">
@@ -11675,7 +11700,7 @@
         <v>371</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E372" s="6"/>
       <c r="F372" s="6" t="s">
@@ -11697,7 +11722,7 @@
         <v>372</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E373" s="6"/>
       <c r="F373" s="6" t="s">
@@ -11719,7 +11744,7 @@
         <v>373</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E374" s="6"/>
       <c r="F374" s="6" t="s">
@@ -11741,7 +11766,7 @@
         <v>374</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E375" s="6"/>
       <c r="F375" s="6" t="s">
@@ -11763,7 +11788,7 @@
         <v>375</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E376" s="6"/>
       <c r="F376" s="6" t="s">
@@ -11787,7 +11812,7 @@
         <v>376</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E377" s="6"/>
       <c r="F377" s="6" t="s">
@@ -11809,7 +11834,7 @@
         <v>377</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E378" s="6"/>
       <c r="F378" s="6" t="s">
@@ -11831,7 +11856,7 @@
         <v>378</v>
       </c>
       <c r="D379" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E379" s="6"/>
       <c r="F379" s="6" t="s">
@@ -11853,7 +11878,7 @@
         <v>379</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E380" s="6"/>
       <c r="F380" s="6" t="s">
@@ -11875,7 +11900,7 @@
         <v>380</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E381" s="6"/>
       <c r="F381" s="6" t="s">
@@ -11899,7 +11924,7 @@
         <v>381</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E382" s="6"/>
       <c r="F382" s="6" t="s">
@@ -11921,7 +11946,7 @@
         <v>382</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E383" s="6"/>
       <c r="F383" s="6" t="s">
@@ -11943,7 +11968,7 @@
         <v>383</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E384" s="6"/>
       <c r="F384" s="6" t="s">
@@ -11965,7 +11990,7 @@
         <v>384</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E385" s="6"/>
       <c r="F385" s="6" t="s">
@@ -11987,7 +12012,7 @@
         <v>385</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E386" s="6"/>
       <c r="F386" s="6" t="s">
@@ -12011,7 +12036,7 @@
         <v>386</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E387" s="6"/>
       <c r="F387" s="6" t="s">
@@ -12033,7 +12058,7 @@
         <v>387</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E388" s="6"/>
       <c r="F388" s="6" t="s">
@@ -12055,7 +12080,7 @@
         <v>388</v>
       </c>
       <c r="D389" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E389" s="6"/>
       <c r="F389" s="6" t="s">
@@ -12077,7 +12102,7 @@
         <v>389</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E390" s="6"/>
       <c r="F390" s="6" t="s">
@@ -12099,7 +12124,7 @@
         <v>390</v>
       </c>
       <c r="D391" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E391" s="6"/>
       <c r="F391" s="6" t="s">
@@ -12123,7 +12148,7 @@
         <v>391</v>
       </c>
       <c r="D392" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E392" s="6"/>
       <c r="F392" s="6" t="s">
@@ -12145,7 +12170,7 @@
         <v>392</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E393" s="6"/>
       <c r="F393" s="6" t="s">
@@ -12167,7 +12192,7 @@
         <v>393</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E394" s="6"/>
       <c r="F394" s="6" t="s">
@@ -12189,7 +12214,7 @@
         <v>394</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E395" s="6"/>
       <c r="F395" s="6" t="s">
@@ -12211,7 +12236,7 @@
         <v>395</v>
       </c>
       <c r="D396" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E396" s="6"/>
       <c r="F396" s="6" t="s">
@@ -12235,7 +12260,7 @@
         <v>396</v>
       </c>
       <c r="D397" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E397" s="6"/>
       <c r="F397" s="6" t="s">
@@ -12257,7 +12282,7 @@
         <v>397</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E398" s="6"/>
       <c r="F398" s="6" t="s">
@@ -12279,7 +12304,7 @@
         <v>398</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E399" s="6"/>
       <c r="F399" s="6" t="s">
@@ -12301,7 +12326,7 @@
         <v>399</v>
       </c>
       <c r="D400" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E400" s="6"/>
       <c r="F400" s="6" t="s">
@@ -12323,7 +12348,7 @@
         <v>400</v>
       </c>
       <c r="D401" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E401" s="6"/>
       <c r="F401" s="6" t="s">
@@ -12347,7 +12372,7 @@
         <v>401</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E402" s="6"/>
       <c r="F402" s="6" t="s">
@@ -12369,7 +12394,7 @@
         <v>402</v>
       </c>
       <c r="D403" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E403" s="6"/>
       <c r="F403" s="6" t="s">
@@ -12391,7 +12416,7 @@
         <v>403</v>
       </c>
       <c r="D404" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E404" s="6"/>
       <c r="F404" s="6" t="s">
@@ -12413,7 +12438,7 @@
         <v>404</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E405" s="6"/>
       <c r="F405" s="6" t="s">
@@ -12435,7 +12460,7 @@
         <v>405</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E406" s="6"/>
       <c r="F406" s="6" t="s">
@@ -12459,7 +12484,7 @@
         <v>406</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E407" s="6"/>
       <c r="F407" s="6" t="s">
@@ -12481,7 +12506,7 @@
         <v>407</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E408" s="6"/>
       <c r="F408" s="6" t="s">
@@ -12503,7 +12528,7 @@
         <v>408</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E409" s="6"/>
       <c r="F409" s="6" t="s">
@@ -12525,7 +12550,7 @@
         <v>409</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E410" s="6"/>
       <c r="F410" s="6" t="s">
@@ -12547,7 +12572,7 @@
         <v>410</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E411" s="6"/>
       <c r="F411" s="6" t="s">
@@ -12571,7 +12596,7 @@
         <v>411</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E412" s="6"/>
       <c r="F412" s="6" t="s">
@@ -12593,7 +12618,7 @@
         <v>412</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E413" s="6"/>
       <c r="F413" s="6" t="s">
@@ -12615,7 +12640,7 @@
         <v>413</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E414" s="6"/>
       <c r="F414" s="6" t="s">
@@ -12637,7 +12662,7 @@
         <v>414</v>
       </c>
       <c r="D415" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E415" s="6"/>
       <c r="F415" s="6" t="s">
@@ -12659,7 +12684,7 @@
         <v>415</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E416" s="6"/>
       <c r="F416" s="6" t="s">
@@ -12683,7 +12708,7 @@
         <v>416</v>
       </c>
       <c r="D417" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E417" s="6"/>
       <c r="F417" s="6" t="s">
@@ -12705,7 +12730,7 @@
         <v>417</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E418" s="6"/>
       <c r="F418" s="6" t="s">
@@ -12727,7 +12752,7 @@
         <v>418</v>
       </c>
       <c r="D419" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E419" s="6"/>
       <c r="F419" s="6" t="s">
@@ -12749,7 +12774,7 @@
         <v>419</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E420" s="6"/>
       <c r="F420" s="6" t="s">
@@ -12771,7 +12796,7 @@
         <v>420</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E421" s="6"/>
       <c r="F421" s="6" t="s">
@@ -12795,7 +12820,7 @@
         <v>421</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E422" s="6"/>
       <c r="F422" s="6" t="s">
@@ -12817,7 +12842,7 @@
         <v>422</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E423" s="6"/>
       <c r="F423" s="6" t="s">
@@ -12839,7 +12864,7 @@
         <v>423</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E424" s="6"/>
       <c r="F424" s="6" t="s">
@@ -12861,7 +12886,7 @@
         <v>424</v>
       </c>
       <c r="D425" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E425" s="6"/>
       <c r="F425" s="6" t="s">
@@ -12883,7 +12908,7 @@
         <v>425</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E426" s="6"/>
       <c r="F426" s="6" t="s">
@@ -12907,7 +12932,7 @@
         <v>426</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E427" s="6"/>
       <c r="F427" s="6" t="s">
@@ -12929,7 +12954,7 @@
         <v>427</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E428" s="6"/>
       <c r="F428" s="6" t="s">
@@ -12951,7 +12976,7 @@
         <v>428</v>
       </c>
       <c r="D429" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E429" s="6"/>
       <c r="F429" s="6" t="s">
@@ -12973,7 +12998,7 @@
         <v>429</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E430" s="6"/>
       <c r="F430" s="6" t="s">
@@ -12995,7 +13020,7 @@
         <v>430</v>
       </c>
       <c r="D431" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E431" s="6"/>
       <c r="F431" s="6" t="s">
@@ -13019,7 +13044,7 @@
         <v>431</v>
       </c>
       <c r="D432" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E432" s="6"/>
       <c r="F432" s="6" t="s">
@@ -13041,7 +13066,7 @@
         <v>432</v>
       </c>
       <c r="D433" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E433" s="6"/>
       <c r="F433" s="6" t="s">
@@ -13063,7 +13088,7 @@
         <v>433</v>
       </c>
       <c r="D434" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E434" s="6"/>
       <c r="F434" s="6" t="s">
@@ -13085,7 +13110,7 @@
         <v>434</v>
       </c>
       <c r="D435" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E435" s="6"/>
       <c r="F435" s="6" t="s">
@@ -13107,7 +13132,7 @@
         <v>435</v>
       </c>
       <c r="D436" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E436" s="6"/>
       <c r="F436" s="6" t="s">
@@ -13131,7 +13156,7 @@
         <v>436</v>
       </c>
       <c r="D437" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E437" s="6"/>
       <c r="F437" s="6" t="s">
@@ -13153,7 +13178,7 @@
         <v>437</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E438" s="6"/>
       <c r="F438" s="6" t="s">
@@ -13175,7 +13200,7 @@
         <v>438</v>
       </c>
       <c r="D439" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E439" s="6"/>
       <c r="F439" s="6" t="s">
@@ -13197,7 +13222,7 @@
         <v>439</v>
       </c>
       <c r="D440" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E440" s="6"/>
       <c r="F440" s="6" t="s">
@@ -13219,7 +13244,7 @@
         <v>440</v>
       </c>
       <c r="D441" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E441" s="6"/>
       <c r="F441" s="6" t="s">
@@ -13243,7 +13268,7 @@
         <v>441</v>
       </c>
       <c r="D442" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E442" s="6"/>
       <c r="F442" s="6" t="s">
@@ -13265,7 +13290,7 @@
         <v>442</v>
       </c>
       <c r="D443" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E443" s="6"/>
       <c r="F443" s="6" t="s">
@@ -13287,7 +13312,7 @@
         <v>443</v>
       </c>
       <c r="D444" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E444" s="6"/>
       <c r="F444" s="6" t="s">
@@ -13309,7 +13334,7 @@
         <v>444</v>
       </c>
       <c r="D445" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E445" s="6"/>
       <c r="F445" s="6" t="s">
@@ -13331,7 +13356,7 @@
         <v>445</v>
       </c>
       <c r="D446" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E446" s="6"/>
       <c r="F446" s="6" t="s">
@@ -13355,7 +13380,7 @@
         <v>446</v>
       </c>
       <c r="D447" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E447" s="6"/>
       <c r="F447" s="6" t="s">
@@ -13377,7 +13402,7 @@
         <v>447</v>
       </c>
       <c r="D448" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E448" s="6"/>
       <c r="F448" s="6" t="s">
@@ -13399,7 +13424,7 @@
         <v>448</v>
       </c>
       <c r="D449" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E449" s="6"/>
       <c r="F449" s="6" t="s">
@@ -13421,7 +13446,7 @@
         <v>449</v>
       </c>
       <c r="D450" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E450" s="6"/>
       <c r="F450" s="6" t="s">
@@ -13443,7 +13468,7 @@
         <v>450</v>
       </c>
       <c r="D451" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E451" s="6"/>
       <c r="F451" s="6" t="s">
